--- a/info/metodo-objeto-modulo.xlsx
+++ b/info/metodo-objeto-modulo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josem\Desktop\University\2023C\Desarrollo Web II\bakery-project\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D8AAA0-48D6-4F06-9396-783B92CC80D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D9D8B3-1AF4-4A96-A680-4104D683B609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44970" yWindow="0" windowWidth="12735" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -644,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>

--- a/info/metodo-objeto-modulo.xlsx
+++ b/info/metodo-objeto-modulo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josem\Desktop\University\2023C\Desarrollo Web II\bakery-project\info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Migue\Desktop\bakery-project-main\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D9D8B3-1AF4-4A96-A680-4104D683B609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C6CA72-B984-4E4F-BAA4-EB871AA203E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44970" yWindow="0" windowWidth="12735" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="420" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="83">
   <si>
     <t>metodo</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -345,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -360,6 +363,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,20 +653,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -671,7 +680,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -684,8 +693,9 @@
       <c r="E3" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -702,7 +712,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -715,8 +725,11 @@
       <c r="E5" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F5" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -729,8 +742,11 @@
       <c r="E6" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F6" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -743,8 +759,11 @@
       <c r="E7" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>62</v>
       </c>
@@ -757,8 +776,11 @@
       <c r="E8" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F8" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -771,8 +793,11 @@
       <c r="E9" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -785,8 +810,11 @@
       <c r="E10" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -799,8 +827,11 @@
       <c r="E11" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
@@ -813,8 +844,11 @@
       <c r="E12" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -827,8 +861,11 @@
       <c r="E13" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F13" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
@@ -845,7 +882,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
@@ -858,8 +895,11 @@
       <c r="E15" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F15" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
@@ -872,8 +912,11 @@
       <c r="E16" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F16" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
@@ -886,8 +929,11 @@
       <c r="E17" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F17" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
@@ -900,8 +946,11 @@
       <c r="E18" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F18" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
@@ -914,8 +963,11 @@
       <c r="E19" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F19" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
@@ -928,8 +980,11 @@
       <c r="E20" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F20" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
@@ -942,8 +997,11 @@
       <c r="E21" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F21" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
@@ -956,8 +1014,11 @@
       <c r="E22" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F22" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
@@ -970,8 +1031,11 @@
       <c r="E23" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F23" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
@@ -984,8 +1048,11 @@
       <c r="E24" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F24" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
@@ -998,8 +1065,11 @@
       <c r="E25" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F25" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
@@ -1012,8 +1082,9 @@
       <c r="E26" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
@@ -1026,8 +1097,9 @@
       <c r="E27" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
@@ -1040,8 +1112,9 @@
       <c r="E28" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
@@ -1054,8 +1127,9 @@
       <c r="E29" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
@@ -1068,8 +1142,9 @@
       <c r="E30" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
@@ -1082,8 +1157,9 @@
       <c r="E31" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -1096,8 +1172,9 @@
       <c r="E32" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -1110,8 +1187,9 @@
       <c r="E33" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>34</v>
       </c>
@@ -1124,8 +1202,9 @@
       <c r="E34" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
@@ -1138,8 +1217,9 @@
       <c r="E35" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>22</v>
       </c>
@@ -1152,8 +1232,9 @@
       <c r="E36" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1166,8 +1247,11 @@
       <c r="E37" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F37" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>37</v>
       </c>
@@ -1180,8 +1264,9 @@
       <c r="E38" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>38</v>
       </c>
@@ -1194,8 +1279,9 @@
       <c r="E39" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>39</v>
       </c>
@@ -1208,8 +1294,9 @@
       <c r="E40" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>40</v>
       </c>
@@ -1222,8 +1309,9 @@
       <c r="E41" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>41</v>
       </c>
@@ -1236,8 +1324,9 @@
       <c r="E42" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
@@ -1250,8 +1339,9 @@
       <c r="E43" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>43</v>
       </c>
@@ -1264,8 +1354,9 @@
       <c r="E44" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
@@ -1278,8 +1369,9 @@
       <c r="E45" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>45</v>
       </c>
@@ -1292,8 +1384,9 @@
       <c r="E46" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>46</v>
       </c>
@@ -1306,8 +1399,9 @@
       <c r="E47" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>47</v>
       </c>
@@ -1320,8 +1414,9 @@
       <c r="E48" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>49</v>
       </c>
@@ -1334,8 +1429,9 @@
       <c r="E49" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
@@ -1348,8 +1444,9 @@
       <c r="E50" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>51</v>
       </c>
@@ -1362,8 +1459,9 @@
       <c r="E51" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>48</v>
       </c>
@@ -1376,8 +1474,9 @@
       <c r="E52" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>52</v>
       </c>
@@ -1390,8 +1489,9 @@
       <c r="E53" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>53</v>
       </c>
@@ -1404,8 +1504,9 @@
       <c r="E54" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>54</v>
       </c>
@@ -1418,8 +1519,9 @@
       <c r="E55" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>55</v>
       </c>
@@ -1432,8 +1534,9 @@
       <c r="E56" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>56</v>
       </c>
@@ -1446,8 +1549,9 @@
       <c r="E57" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>57</v>
       </c>
@@ -1460,8 +1564,9 @@
       <c r="E58" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>58</v>
       </c>
@@ -1474,8 +1579,9 @@
       <c r="E59" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>59</v>
       </c>
@@ -1488,8 +1594,9 @@
       <c r="E60" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="61" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>61</v>
       </c>
@@ -1502,8 +1609,9 @@
       <c r="E61" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>60</v>
       </c>
@@ -1516,26 +1624,27 @@
       <c r="E62" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>

--- a/info/metodo-objeto-modulo.xlsx
+++ b/info/metodo-objeto-modulo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Migue\Desktop\bakery-project-main\info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Migue\Desktop\bakery-project\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C6CA72-B984-4E4F-BAA4-EB871AA203E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51942AE9-A8E0-4DB1-9176-C21C96E35A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="420" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="83">
   <si>
     <t>metodo</t>
   </si>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1082,9 @@
       <c r="E26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="27" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
@@ -1097,7 +1099,9 @@
       <c r="E27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="28" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
@@ -1112,7 +1116,9 @@
       <c r="E28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="29" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
@@ -1127,7 +1133,9 @@
       <c r="E29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="30" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
@@ -1142,7 +1150,9 @@
       <c r="E30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="31" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
@@ -1157,7 +1167,9 @@
       <c r="E31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -1172,7 +1184,9 @@
       <c r="E32" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="33" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
@@ -1187,7 +1201,9 @@
       <c r="E33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="34" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
@@ -1202,7 +1218,9 @@
       <c r="E34" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="35" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
@@ -1217,7 +1235,9 @@
       <c r="E35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="36" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
@@ -1232,7 +1252,9 @@
       <c r="E36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
@@ -1339,7 +1361,6 @@
       <c r="E43" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
@@ -1652,6 +1673,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/info/metodo-objeto-modulo.xlsx
+++ b/info/metodo-objeto-modulo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Migue\Desktop\bakery-project\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51942AE9-A8E0-4DB1-9176-C21C96E35A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B48EB4-89CE-4993-B9C2-4F73803CF6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="420" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="83">
   <si>
     <t>metodo</t>
   </si>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1286,9 @@
       <c r="E38" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="7"/>
+      <c r="F38" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="39" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
@@ -1301,7 +1303,9 @@
       <c r="E39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="40" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
@@ -1316,7 +1320,9 @@
       <c r="E40" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="41" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
@@ -1331,7 +1337,9 @@
       <c r="E41" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="7"/>
+      <c r="F41" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="42" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
@@ -1346,7 +1354,9 @@
       <c r="E42" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F42" s="7"/>
+      <c r="F42" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="43" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
@@ -1361,6 +1371,9 @@
       <c r="E43" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="F43" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="44" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
@@ -1375,7 +1388,9 @@
       <c r="E44" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="45" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
@@ -1390,7 +1405,9 @@
       <c r="E45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F45" s="7"/>
+      <c r="F45" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="46" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
@@ -1405,7 +1422,9 @@
       <c r="E46" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="7"/>
+      <c r="F46" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="47" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
@@ -1420,7 +1439,9 @@
       <c r="E47" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F47" s="7"/>
+      <c r="F47" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="48" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
@@ -1435,7 +1456,9 @@
       <c r="E48" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="7"/>
+      <c r="F48" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="49" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
